--- a/time_table.xlsx
+++ b/time_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSNAIN CHOUDHARY\Desktop\help\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023B6835-6E5A-46D0-BECD-F8B70F823251}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30228C61-8AD9-4836-BC1D-B53293B2C741}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{67762576-76B7-4316-84BF-A6CE6493A76E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="67">
   <si>
     <t>DATE</t>
   </si>
@@ -159,14 +159,80 @@
     <t>1:30pm to 3:30am=2:00 hours</t>
   </si>
   <si>
-    <t>HTML &amp; CSS</t>
+    <t>2:00pm to 5:00am=3:00 hours</t>
+  </si>
+  <si>
+    <t>Skill To Get In 2021</t>
+  </si>
+  <si>
+    <t>SKILLS</t>
+  </si>
+  <si>
+    <t>JANUARY</t>
+  </si>
+  <si>
+    <t>FEBRUARY</t>
+  </si>
+  <si>
+    <t>MARCH</t>
+  </si>
+  <si>
+    <t>APRIL</t>
+  </si>
+  <si>
+    <t>MAY</t>
+  </si>
+  <si>
+    <t>JUNE</t>
+  </si>
+  <si>
+    <t>JULY</t>
+  </si>
+  <si>
+    <t>AUGUST</t>
+  </si>
+  <si>
+    <t>SEPTEMBER</t>
+  </si>
+  <si>
+    <t>OCTOBER</t>
+  </si>
+  <si>
+    <t>NOVEMBER</t>
+  </si>
+  <si>
+    <t>DECEMBER</t>
+  </si>
+  <si>
+    <t>Django</t>
+  </si>
+  <si>
+    <t>HTML/CSS</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>React Native</t>
+  </si>
+  <si>
+    <t>Javscript</t>
+  </si>
+  <si>
+    <t>Wordpress</t>
+  </si>
+  <si>
+    <t>React + jquery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3500 hours </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +288,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -255,7 +329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -302,11 +376,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -339,6 +422,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -655,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0CC5C2-AB43-4A4F-BF49-FF5693FF6855}">
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,7 +1361,7 @@
         <v>44211</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>43</v>
@@ -1300,13 +1389,27 @@
       <c r="B26" s="2">
         <v>44212</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="8"/>
+      <c r="C26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="J26" s="3"/>
       <c r="K26" s="1"/>
     </row>
@@ -1315,10 +1418,27 @@
       <c r="B27" s="2">
         <v>44213</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="I27" s="9"/>
+      <c r="C27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1326,10 +1446,27 @@
       <c r="B28" s="2">
         <v>44214</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="I28" s="9"/>
+      <c r="C28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1901,8 +2038,213 @@
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
     </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C89" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D89" s="13"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+      <c r="B93" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="3"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="3"/>
+      <c r="B95" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="3"/>
+      <c r="B96" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="15"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
+      <c r="B97" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="15"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="3"/>
+      <c r="B98" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="15"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="3"/>
+      <c r="B99" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="15"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="3"/>
+      <c r="B100" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="15"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="3"/>
+      <c r="B101" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="15"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="3"/>
+      <c r="B102" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="15"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="3"/>
+      <c r="B103" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="15"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="3"/>
+      <c r="B104" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="15"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="3"/>
+      <c r="B105" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="15"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="3"/>
+      <c r="B106" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="15"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="3"/>
+      <c r="B107" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="15"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="4"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="23">
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="C89:D91"/>
+    <mergeCell ref="E95:E107"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
     <mergeCell ref="E1:F3"/>
     <mergeCell ref="E51:F53"/>
     <mergeCell ref="I5:I6"/>

--- a/time_table.xlsx
+++ b/time_table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSNAIN CHOUDHARY\Desktop\help\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSNAIN CHOUDHARY\Desktop\desktop\help\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30228C61-8AD9-4836-BC1D-B53293B2C741}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10ADE1F1-2194-49D2-B6B3-A8E86C7DE630}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{67762576-76B7-4316-84BF-A6CE6493A76E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="69">
   <si>
     <t>DATE</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t xml:space="preserve">3500 hours </t>
+  </si>
+  <si>
+    <t>Bootstrap 4</t>
+  </si>
+  <si>
+    <t>2:00pm to 4:00am=2:00 hours</t>
   </si>
 </sst>
 </file>
@@ -389,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -412,7 +418,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -421,14 +436,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -746,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0CC5C2-AB43-4A4F-BF49-FF5693FF6855}">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,18 +774,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="12"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -793,28 +802,28 @@
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="3"/>
@@ -822,14 +831,14 @@
     </row>
     <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
       <c r="J6" s="3"/>
       <c r="K6" s="1"/>
     </row>
@@ -1474,10 +1483,27 @@
       <c r="B29" s="2">
         <v>44215</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="I29" s="9"/>
+      <c r="C29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1485,10 +1511,27 @@
       <c r="B30" s="2">
         <v>44216</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="I30" s="9"/>
+      <c r="C30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1496,10 +1539,27 @@
       <c r="B31" s="2">
         <v>44217</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="I31" s="9"/>
+      <c r="C31" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1507,10 +1567,27 @@
       <c r="B32" s="2">
         <v>44218</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="I32" s="9"/>
+      <c r="C32" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1518,10 +1595,27 @@
       <c r="B33" s="2">
         <v>44219</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="I33" s="9"/>
+      <c r="C33" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1529,10 +1623,27 @@
       <c r="B34" s="2">
         <v>44220</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="I34" s="9"/>
+      <c r="C34" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1540,10 +1651,17 @@
       <c r="B35" s="2">
         <v>44221</v>
       </c>
-      <c r="C35" s="6"/>
+      <c r="C35" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E35" s="6"/>
       <c r="G35" s="6"/>
-      <c r="I35" s="9"/>
+      <c r="I35" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1625,18 +1743,18 @@
       <c r="J42" s="4"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E51" s="13" t="s">
+      <c r="E51" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F51" s="13"/>
+      <c r="F51" s="12"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
@@ -1652,42 +1770,42 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E55" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F55" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G55" s="10" t="s">
+      <c r="G55" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H55" s="10" t="s">
+      <c r="H55" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I55" s="10" t="s">
+      <c r="I55" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J55" s="3"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
       <c r="J56" s="3"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -2039,18 +2157,18 @@
       <c r="J83" s="4"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="13" t="s">
+      <c r="C89" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D89" s="13"/>
+      <c r="D89" s="12"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
@@ -2061,168 +2179,168 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C93" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D93" s="10" t="s">
+      <c r="D93" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E93" s="3"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
       <c r="E94" s="3"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D95" s="8"/>
-      <c r="E95" s="15" t="s">
+      <c r="E95" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
-      <c r="B96" s="14" t="s">
+      <c r="B96" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D96" s="8"/>
-      <c r="E96" s="15"/>
+      <c r="E96" s="13"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D97" s="8"/>
-      <c r="E97" s="15"/>
+      <c r="E97" s="13"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D98" s="8"/>
-      <c r="E98" s="15"/>
+      <c r="E98" s="13"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
-      <c r="B99" s="14" t="s">
+      <c r="B99" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D99" s="8"/>
-      <c r="E99" s="15"/>
+      <c r="E99" s="13"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
-      <c r="B100" s="14" t="s">
+      <c r="B100" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D100" s="8"/>
-      <c r="E100" s="15"/>
+      <c r="E100" s="13"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
-      <c r="B101" s="14" t="s">
+      <c r="B101" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D101" s="8"/>
-      <c r="E101" s="15"/>
+      <c r="E101" s="13"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
-      <c r="B102" s="14" t="s">
+      <c r="B102" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D102" s="8"/>
-      <c r="E102" s="15"/>
+      <c r="E102" s="13"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D103" s="8"/>
-      <c r="E103" s="15"/>
+      <c r="E103" s="13"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
-      <c r="B104" s="14" t="s">
+      <c r="B104" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D104" s="8"/>
-      <c r="E104" s="15"/>
+      <c r="E104" s="13"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>65</v>
       </c>
       <c r="D105" s="8"/>
-      <c r="E105" s="15"/>
+      <c r="E105" s="13"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
-      <c r="B106" s="14" t="s">
+      <c r="B106" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D106" s="8"/>
-      <c r="E106" s="15"/>
+      <c r="E106" s="13"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
-      <c r="B107" s="14" t="s">
+      <c r="B107" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D107" s="8"/>
-      <c r="E107" s="15"/>
+      <c r="E107" s="13"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
@@ -2240,16 +2358,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="C89:D91"/>
-    <mergeCell ref="E95:E107"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="E51:F53"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
@@ -2263,6 +2371,16 @@
     <mergeCell ref="H55:H56"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="E51:F53"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="C89:D91"/>
+    <mergeCell ref="E95:E107"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
